--- a/views/37019_diff.xlsx
+++ b/views/37019_diff.xlsx
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B141" activeCellId="0" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
